--- a/maiData.xlsx
+++ b/maiData.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -407,10 +407,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.9950248756218906</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4049.3654903914594</v>
+        <v>4051.262334999359</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.9950248756218906</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4049.3654903914594</v>
+        <v>4051.262334999359</v>
       </c>
       <c r="C4">
         <v>37</v>
@@ -429,388 +429,25 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.9950248756218906</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4049.3654903914594</v>
+        <v>4051.262334999359</v>
       </c>
       <c r="C5">
         <v>37</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B6">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B7">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B8">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B9">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B10">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B11">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B12">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B13">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B14">
-        <v>4049.3654903914594</v>
-      </c>
-      <c r="C14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B15">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B16">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B17">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C17">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B18">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C18">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B19">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B20">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C20">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B21">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B22">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C22">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B23">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B24">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B25">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B26">
-        <v>4073.1674606166775</v>
-      </c>
-      <c r="C26">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B27">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C27">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B28">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C28">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B29">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C29">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B30">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C30">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B31">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B32">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B33">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C33">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B34">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C34">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B35">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C35">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B36">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C36">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B37">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C37">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>0.9950248756218906</v>
-      </c>
-      <c r="B38">
-        <v>4096.149318525189</v>
-      </c>
-      <c r="C38">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -832,9 +469,77 @@
         <v>ETH_POOL_VALUE</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>192.30914203436083</v>
+      </c>
+      <c r="B3">
+        <v>10.399901607212858</v>
+      </c>
+      <c r="C3">
+        <v>1999.9961553248752</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3999.99231064975</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>192.30914203436083</v>
+      </c>
+      <c r="B4">
+        <v>10.399901607212858</v>
+      </c>
+      <c r="C4">
+        <v>1999.9961553248752</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3999.99231064975</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>192.30914203436083</v>
+      </c>
+      <c r="B5">
+        <v>10.399901607212858</v>
+      </c>
+      <c r="C5">
+        <v>1999.9961553248752</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3999.99231064975</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/maiData.xlsx
+++ b/maiData.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4000</v>
+        <v>73800</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -410,10 +410,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4051.262334999359</v>
+        <v>75671.51397204823</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4051.262334999359</v>
+        <v>76254.38545700794</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -432,29 +432,161 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4051.262334999359</v>
+        <v>76411.10009905686</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>77745.74522376861</v>
+      </c>
+      <c r="C6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>78398.04933044831</v>
+      </c>
+      <c r="C7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>78974.6719128924</v>
+      </c>
+      <c r="C8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>80208.67702197292</v>
+      </c>
+      <c r="C9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>80482.08545990578</v>
+      </c>
+      <c r="C10">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>80482.08545990578</v>
+      </c>
+      <c r="C11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>81514.23702297387</v>
+      </c>
+      <c r="C12">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>82173.36133174157</v>
+      </c>
+      <c r="C13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>82250.42095453852</v>
+      </c>
+      <c r="C14">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>83372.96251952674</v>
+      </c>
+      <c r="C15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>83745.41864556615</v>
+      </c>
+      <c r="C16">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>84250.27530787289</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ETH_PRICE</v>
+        <v>ETHPRICE_contract</v>
       </c>
       <c r="B1" t="str">
         <v>ETH_POOL_BALANCE</v>
@@ -471,75 +603,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>2000</v>
+        <v>36900</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4000</v>
+        <v>73800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>192.30914203436083</v>
+        <v>370.46421159308017</v>
       </c>
       <c r="B3">
-        <v>10.399901607212858</v>
+        <v>100.10176142922158</v>
       </c>
       <c r="C3">
-        <v>1999.9961553248752</v>
+        <v>37084.120126955175</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>3999.99231064975</v>
+        <v>74168.24025391035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>192.30914203436083</v>
+        <v>377.17615200813265</v>
       </c>
       <c r="B4">
-        <v>10.399901607212858</v>
+        <v>99.54536441197352</v>
       </c>
       <c r="C4">
-        <v>1999.9961553248752</v>
+        <v>37546.137499155484</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>3999.99231064975</v>
+        <v>75092.27499831097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>192.30914203436083</v>
+        <v>381.7511674721832</v>
       </c>
       <c r="B5">
-        <v>10.399901607212858</v>
+        <v>98.94818404896054</v>
       </c>
       <c r="C5">
-        <v>1999.9961553248752</v>
+        <v>37773.584779943136</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>3999.99231064975</v>
+        <v>75547.16955988627</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>377.9516768609191</v>
+      </c>
+      <c r="B6">
+        <v>100.60437797910981</v>
+      </c>
+      <c r="C6">
+        <v>38023.593356754274</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>76047.18671350856</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>385.5633591680557</v>
+      </c>
+      <c r="B7">
+        <v>99.6073643968259</v>
+      </c>
+      <c r="C7">
+        <v>38404.950014716786</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>76809.90002943357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>399.0478798042935</v>
+      </c>
+      <c r="B8">
+        <v>97.9108002469617</v>
+      </c>
+      <c r="C8">
+        <v>39071.09724849176</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>78142.19449698352</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>383.698639721865</v>
+      </c>
+      <c r="B9">
+        <v>100.41179291937628</v>
+      </c>
+      <c r="C9">
+        <v>38527.86835519828</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>77055.73671039657</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>379.14948844492494</v>
+      </c>
+      <c r="B10">
+        <v>101.01357872462464</v>
+      </c>
+      <c r="C10">
+        <v>38299.24669943258</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>76598.49339886516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>379.14059727680086</v>
+      </c>
+      <c r="B11">
+        <v>101.01594875114338</v>
+      </c>
+      <c r="C11">
+        <v>38299.24714399121</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>76598.49428798242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>393.6996077342684</v>
+      </c>
+      <c r="B12">
+        <v>99.70468963529156</v>
+      </c>
+      <c r="C12">
+        <v>39253.69719868126</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>78507.39439736251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>392.9096497526567</v>
+      </c>
+      <c r="B13">
+        <v>100.19016217596598</v>
+      </c>
+      <c r="C13">
+        <v>39365.68152922067</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>78731.36305844133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>393.68535765452157</v>
+      </c>
+      <c r="B14">
+        <v>100.09255401302376</v>
+      </c>
+      <c r="C14">
+        <v>39404.97292517178</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>78809.94585034356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>383.32786026042345</v>
+      </c>
+      <c r="B15">
+        <v>101.99411918153741</v>
+      </c>
+      <c r="C15">
+        <v>39097.18746500535</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>78194.3749300107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>392.49190238547743</v>
+      </c>
+      <c r="B16">
+        <v>100.79746050660087</v>
+      </c>
+      <c r="C16">
+        <v>39562.18702986081</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>79124.37405972162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>406.87221876631384</v>
+      </c>
+      <c r="B17">
+        <v>99.00105703594356</v>
+      </c>
+      <c r="C17">
+        <v>40280.77973642473</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>80561.55947284948</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
   </ignoredErrors>
 </worksheet>
 </file>
